--- a/aili/aili-support/src/test/resources/excel/reporttemplate-sample4.xlsx
+++ b/aili/aili-support/src/test/resources/excel/reporttemplate-sample4.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="90" yWindow="855" windowWidth="18945" windowHeight="8520"/>
+    <workbookView xWindow="90" yWindow="885" windowWidth="18945" windowHeight="8490"/>
   </bookViews>
   <sheets>
     <sheet name="大学预算" sheetId="2" r:id="rId1"/>
@@ -383,6 +383,28 @@
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Microsoft YaHei"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="176" formatCode="[$¥-804]#,##0.00"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
         <condense val="0"/>
         <extend val="0"/>
         <outline val="0"/>
@@ -402,28 +424,6 @@
         </patternFill>
       </fill>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color auto="1"/>
-        <name val="Microsoft YaHei"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="176" formatCode="[$¥-804]#,##0.00"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <font>
@@ -1207,11 +1207,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="170670080"/>
-        <c:axId val="139770624"/>
+        <c:axId val="100752000"/>
+        <c:axId val="100770176"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="170670080"/>
+        <c:axId val="100752000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1233,7 +1233,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="139770624"/>
+        <c:crossAx val="100770176"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1241,7 +1241,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="139770624"/>
+        <c:axId val="100770176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1265,7 +1265,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="170670080"/>
+        <c:crossAx val="100752000"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1376,7 +1376,7 @@
   <autoFilter ref="E12:F18"/>
   <tableColumns count="2">
     <tableColumn id="1" name="项目" totalsRowLabel="总计" dataDxfId="3" totalsRowDxfId="2"/>
-    <tableColumn id="2" name="金额" totalsRowFunction="sum" dataDxfId="1" totalsRowDxfId="0">
+    <tableColumn id="2" name="金额" totalsRowFunction="sum" dataDxfId="0" totalsRowDxfId="1">
       <calculatedColumnFormula>1*10</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1622,7 +1622,7 @@
   <dimension ref="A1:G30"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="R9" sqref="R9"/>
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="13.5"/>
